--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +137,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -172,7 +171,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -348,40 +346,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="C8">
         <f>SUM(B3:B5)</f>
-        <v>6700</v>
+        <v>6800</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4">
       <c r="D9">
         <f>AVERAGE(B3:B5)</f>
-        <v>2233.3333333333335</v>
+        <v>2266.6666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -390,24 +388,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
